--- a/training_results.xlsx
+++ b/training_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Batch_size</t>
   </si>
@@ -81,13 +81,31 @@
   </si>
   <si>
     <t>SRD</t>
+  </si>
+  <si>
+    <t>values to be changed</t>
+  </si>
+  <si>
+    <t>Train results</t>
+  </si>
+  <si>
+    <t>Test results</t>
+  </si>
+  <si>
+    <t>who will take</t>
+  </si>
+  <si>
+    <t>wagih</t>
+  </si>
+  <si>
+    <t>NYU_ResNet-UpProj.npy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +113,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,7 +129,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,10 +179,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,162 +483,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D3" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7">
+        <v>8.2769999999999996E-3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5.5459999999999997E-3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.95430221000000004</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.96606040000000004</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.99693330000000002</v>
+      </c>
+      <c r="N3" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.1246</v>
+      </c>
+      <c r="P3" s="7">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.1439</v>
+      </c>
+      <c r="R3" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="S3" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D2">
+      <c r="D4" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.9</v>
       </c>
-      <c r="E2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F2">
+      <c r="F4" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G4" s="7">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2">
-        <v>8.2769999999999996E-3</v>
-      </c>
-      <c r="I2">
-        <v>5.5459999999999997E-3</v>
-      </c>
-      <c r="K2">
-        <v>0.95430221000000004</v>
-      </c>
-      <c r="L2">
-        <v>0.96606040000000004</v>
-      </c>
-      <c r="M2">
-        <v>0.99693330000000002</v>
-      </c>
-      <c r="N2">
-        <v>7.8E-2</v>
-      </c>
-      <c r="O2">
-        <v>0.1246</v>
-      </c>
-      <c r="P2">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="Q2">
-        <v>0.1439</v>
-      </c>
-      <c r="R2">
-        <v>7.3700000000000002E-2</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="D3">
+      <c r="D5" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.9</v>
       </c>
-      <c r="E3">
+      <c r="F5" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F3">
+      <c r="G5" s="7">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
